--- a/r4-ELGA-IV-Herzinsuffizienz-main/ValueSet-austritt.xlsx
+++ b/r4-ELGA-IV-Herzinsuffizienz-main/ValueSet-austritt.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T08:28:19+00:00</t>
+    <t>2024-05-28T06:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-IV-Herzinsuffizienz-main/ValueSet-austritt.xlsx
+++ b/r4-ELGA-IV-Herzinsuffizienz-main/ValueSet-austritt.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T06:35:41+00:00</t>
+    <t>2024-05-28T08:58:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-IV-Herzinsuffizienz-main/ValueSet-austritt.xlsx
+++ b/r4-ELGA-IV-Herzinsuffizienz-main/ValueSet-austritt.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T08:58:35+00:00</t>
+    <t>2024-05-28T14:23:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-IV-Herzinsuffizienz-main/ValueSet-austritt.xlsx
+++ b/r4-ELGA-IV-Herzinsuffizienz-main/ValueSet-austritt.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:23:58+00:00</t>
+    <t>2024-05-29T09:10:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-IV-Herzinsuffizienz-main/ValueSet-austritt.xlsx
+++ b/r4-ELGA-IV-Herzinsuffizienz-main/ValueSet-austritt.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T09:10:17+00:00</t>
+    <t>2024-05-29T09:13:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
